--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -13661,7 +13661,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J262" s="13" t="n"/>
+      <c r="J262" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
+        </is>
+      </c>
       <c r="K262" s="19" t="n"/>
       <c r="L262" s="19" t="inlineStr">
         <is>
@@ -13712,7 +13716,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J263" s="13" t="n"/>
+      <c r="J263" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
+        </is>
+      </c>
       <c r="K263" s="19" t="n"/>
       <c r="L263" s="19" t="inlineStr">
         <is>
@@ -13818,7 +13826,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J265" s="13" t="n"/>
+      <c r="J265" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
+        </is>
+      </c>
       <c r="K265" s="19" t="n"/>
       <c r="L265" s="19" t="inlineStr">
         <is>
@@ -14254,7 +14266,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J273" s="13" t="n"/>
+      <c r="J273" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
+        </is>
+      </c>
       <c r="K273" s="19" t="n"/>
       <c r="L273" s="19" t="inlineStr">
         <is>
@@ -14525,7 +14541,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J278" s="13" t="n"/>
+      <c r="J278" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K278" s="19" t="n"/>
       <c r="L278" s="19" t="inlineStr">
         <is>
@@ -14682,7 +14702,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J281" s="13" t="n"/>
+      <c r="J281" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="K281" s="19" t="n"/>
       <c r="L281" s="19" t="inlineStr">
         <is>
@@ -14733,7 +14757,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J282" s="13" t="n"/>
+      <c r="J282" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="K282" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
@@ -14898,7 +14926,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J285" s="13" t="n"/>
+      <c r="J285" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K285" s="19" t="inlineStr">
         <is>
           <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
@@ -14953,7 +14985,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J286" s="13" t="n"/>
+      <c r="J286" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K286" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
@@ -15008,7 +15044,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J287" s="13" t="n"/>
+      <c r="J287" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K287" s="19" t="inlineStr">
         <is>
           <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
@@ -15063,7 +15103,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J288" s="13" t="n"/>
+      <c r="J288" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K288" s="19" t="n"/>
       <c r="L288" s="19" t="inlineStr">
         <is>
@@ -15507,7 +15551,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J296" s="13" t="n"/>
+      <c r="J296" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
+        </is>
+      </c>
       <c r="K296" s="19" t="n"/>
       <c r="L296" s="19" t="inlineStr">
         <is>
@@ -15613,7 +15661,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J298" s="13" t="n"/>
+      <c r="J298" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="K298" s="19" t="n"/>
       <c r="L298" s="19" t="inlineStr">
         <is>
@@ -15664,7 +15716,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J299" s="13" t="n"/>
+      <c r="J299" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="K299" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
@@ -15939,7 +15995,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J304" s="13" t="n"/>
+      <c r="J304" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K304" s="19" t="n"/>
       <c r="L304" s="19" t="inlineStr">
         <is>
@@ -16045,7 +16105,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J306" s="13" t="n"/>
+      <c r="J306" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
+        </is>
+      </c>
       <c r="K306" s="19" t="n"/>
       <c r="L306" s="19" t="inlineStr">
         <is>
@@ -16269,7 +16333,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J310" s="13" t="n"/>
+      <c r="J310" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K310" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
@@ -16324,7 +16392,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J311" s="13" t="n"/>
+      <c r="J311" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K311" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
@@ -16941,7 +17013,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J322" s="13" t="n"/>
+      <c r="J322" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
@@ -17047,7 +17123,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J324" s="13" t="n"/>
+      <c r="J324" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
@@ -17589,7 +17669,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J334" s="13" t="n"/>
+      <c r="J334" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K334" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
@@ -17644,7 +17728,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J335" s="13" t="n"/>
+      <c r="J335" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K335" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
@@ -17754,7 +17842,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J337" s="13" t="n"/>
+      <c r="J337" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K337" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
@@ -17974,7 +18066,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J341" s="13" t="n"/>
+      <c r="J341" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K341" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
@@ -18029,7 +18125,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J342" s="13" t="n"/>
+      <c r="J342" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-firewall-manager/</t>
+        </is>
+      </c>
       <c r="K342" s="19" t="n"/>
       <c r="L342" s="19" t="inlineStr">
         <is>
@@ -18131,7 +18231,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J344" s="13" t="n"/>
+      <c r="J344" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K344" s="19" t="n"/>
       <c r="L344" s="19" t="inlineStr">
         <is>
@@ -18182,7 +18286,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J345" s="13" t="n"/>
+      <c r="J345" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K345" s="19" t="n"/>
       <c r="L345" s="19" t="inlineStr">
         <is>
@@ -18335,7 +18443,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J348" s="13" t="n"/>
+      <c r="J348" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-application-gateway/</t>
+        </is>
+      </c>
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
@@ -18386,7 +18498,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J349" s="13" t="n"/>
+      <c r="J349" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="K349" s="19" t="n"/>
       <c r="L349" s="19" t="inlineStr">
         <is>
@@ -18437,7 +18553,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J350" s="13" t="n"/>
+      <c r="J350" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="K350" s="19" t="n"/>
       <c r="L350" s="19" t="inlineStr">
         <is>
@@ -18488,7 +18608,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J351" s="13" t="n"/>
+      <c r="J351" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-104t00/</t>
+        </is>
+      </c>
       <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
@@ -19152,7 +19276,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J363" s="13" t="n"/>
+      <c r="J363" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
@@ -19262,7 +19390,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J365" s="13" t="n"/>
+      <c r="J365" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K365" s="19" t="n"/>
       <c r="L365" s="19" t="inlineStr">
         <is>
@@ -19313,7 +19445,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J366" s="13" t="n"/>
+      <c r="J366" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K366" s="19" t="n"/>
       <c r="L366" s="19" t="inlineStr">
         <is>
@@ -19364,7 +19500,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J367" s="13" t="n"/>
+      <c r="J367" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
@@ -19415,7 +19555,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J368" s="13" t="n"/>
+      <c r="J368" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
@@ -19466,7 +19610,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J369" s="13" t="n"/>
+      <c r="J369" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
@@ -19517,7 +19665,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J370" s="13" t="n"/>
+      <c r="J370" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
@@ -20518,7 +20670,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J389" s="13" t="n"/>
+      <c r="J389" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-monitor/</t>
+        </is>
+      </c>
       <c r="K389" s="19" t="n"/>
       <c r="L389" s="19" t="inlineStr">
         <is>
@@ -20569,7 +20725,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J390" s="13" t="n"/>
+      <c r="J390" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/incident-response-with-alerting-on-azure/</t>
+        </is>
+      </c>
       <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
@@ -20620,7 +20780,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J391" s="13" t="n"/>
+      <c r="J391" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-automation-devops/</t>
+        </is>
+      </c>
       <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
@@ -20671,7 +20835,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J392" s="13" t="n"/>
+      <c r="J392" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
@@ -20777,7 +20945,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J394" s="13" t="n"/>
+      <c r="J394" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K394" s="19" t="n"/>
       <c r="L394" s="19" t="inlineStr">
         <is>
@@ -20828,7 +21000,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J395" s="13" t="n"/>
+      <c r="J395" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
+        </is>
+      </c>
       <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
@@ -20879,7 +21055,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J396" s="13" t="n"/>
+      <c r="J396" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
@@ -20930,7 +21110,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J397" s="13" t="n"/>
+      <c r="J397" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
+        </is>
+      </c>
       <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
@@ -20981,7 +21165,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J398" s="13" t="n"/>
+      <c r="J398" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
+        </is>
+      </c>
       <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
@@ -22209,7 +22397,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J422" s="13" t="n"/>
+      <c r="J422" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
